--- a/oci_tools/automation_toolkit/example/CD3-Flat-template.xlsx
+++ b/oci_tools/automation_toolkit/example/CD3-Flat-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,6 +51,7 @@
     <externalReference r:id="rId35"/>
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
+    <externalReference r:id="rId38"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="20">'LB Rule Set Dropdown'!$A$2:$A$12</definedName>
@@ -165,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="1035">
   <si>
     <t>Region</t>
   </si>
@@ -7037,6 +7038,18 @@
   </si>
   <si>
     <t>vcn01-dmz</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read data-safe-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read autonomous-database-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read vaults in tenancy</t>
+  </si>
+  <si>
+    <t>CIDR Blocks</t>
   </si>
 </sst>
 </file>
@@ -7841,6 +7854,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7904,8 +7919,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -11035,6 +11048,79 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVolumes"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DBSystems-VM-BM"/>
+      <sheetName val="EXA-Infra"/>
+      <sheetName val="EXA-VMClusters"/>
+      <sheetName val="Database_Dropdown"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="LB Rule Set Dropdown"/>
+      <sheetName val="drop_down_rule_comp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11437,10 +11523,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="47" customFormat="1" ht="121.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="118"/>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -11514,18 +11600,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>810</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -13138,17 +13224,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
@@ -13239,25 +13325,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
@@ -13388,28 +13474,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
@@ -14374,15 +14460,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -14562,26 +14648,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>802</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="113" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="115" t="s">
         <v>595</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="115"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:16" s="47" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -14970,18 +15056,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>596</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10" s="47" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -15175,27 +15261,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="125" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128" t="s">
         <v>471</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -15567,26 +15653,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="122.5" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
     </row>
     <row r="2" spans="1:18" ht="43" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -15847,13 +15933,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="32" t="s">
@@ -16113,29 +16199,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="117"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="41" t="s">
@@ -16457,29 +16543,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="116" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="118" t="s">
         <v>480</v>
       </c>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -17156,14 +17242,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="47" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="131" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -17312,24 +17398,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -17557,17 +17643,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="134" t="s">
         <v>478</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -17730,34 +17816,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="55" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="117"/>
     </row>
     <row r="2" spans="1:26" s="66" customFormat="1" ht="43.5">
       <c r="A2" s="69" t="s">
@@ -24164,16 +24250,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>945</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="95" t="s">
@@ -30277,23 +30363,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>600</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
       <c r="P1" s="101"/>
       <c r="Q1" s="101"/>
       <c r="R1" s="101"/>
@@ -41312,13 +41398,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="47" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -42283,10 +42369,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E156" sqref="E156"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -42302,16 +42388,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="47" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -43351,21 +43437,13 @@
       <c r="G83" s="38"/>
       <c r="H83" s="38"/>
     </row>
-    <row r="84" spans="1:8" ht="87" customHeight="1">
-      <c r="A84" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="111" t="s">
-        <v>678</v>
-      </c>
-      <c r="C84" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>679</v>
-      </c>
+    <row r="84" spans="1:8" ht="29" customHeight="1">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>680</v>
+        <v>1031</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -43377,7 +43455,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>681</v>
+        <v>1032</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -43389,19 +43467,27 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>682</v>
+        <v>1033</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
       <c r="H86" s="38"/>
     </row>
-    <row r="87" spans="1:8" ht="29" customHeight="1">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
+    <row r="87" spans="1:8" ht="87" customHeight="1">
+      <c r="A87" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="111" t="s">
+        <v>678</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>679</v>
+      </c>
       <c r="E87" s="38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -43413,19 +43499,19 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
     </row>
-    <row r="89" spans="1:8" ht="29">
+    <row r="89" spans="1:8" ht="29" customHeight="1">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>785</v>
+        <v>682</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -43437,7 +43523,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -43449,19 +43535,19 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
     </row>
-    <row r="92" spans="1:8" ht="29" customHeight="1">
+    <row r="92" spans="1:8" ht="29">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>687</v>
+        <v>785</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -43473,7 +43559,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -43485,7 +43571,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -43497,7 +43583,7 @@
       <c r="C95" s="38"/>
       <c r="D95" s="38"/>
       <c r="E95" s="38" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -43509,7 +43595,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -43521,7 +43607,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -43533,7 +43619,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -43545,43 +43631,43 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
     </row>
-    <row r="100" spans="1:8" ht="29">
+    <row r="100" spans="1:8" ht="29" customHeight="1">
       <c r="A100" s="38"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>786</v>
+        <v>692</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
     </row>
-    <row r="101" spans="1:8" ht="29">
+    <row r="101" spans="1:8" ht="29" customHeight="1">
       <c r="A101" s="38"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>829</v>
+        <v>693</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
       <c r="H101" s="38"/>
     </row>
-    <row r="102" spans="1:8" ht="29">
+    <row r="102" spans="1:8" ht="29" customHeight="1">
       <c r="A102" s="38"/>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
-      <c r="E102" s="1" t="s">
-        <v>1003</v>
+      <c r="E102" s="38" t="s">
+        <v>694</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -43592,8 +43678,8 @@
       <c r="B103" s="38"/>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
-      <c r="E103" s="1" t="s">
-        <v>1004</v>
+      <c r="E103" s="38" t="s">
+        <v>786</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -43604,8 +43690,8 @@
       <c r="B104" s="38"/>
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
-      <c r="E104" s="1" t="s">
-        <v>999</v>
+      <c r="E104" s="38" t="s">
+        <v>829</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -43617,7 +43703,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -43629,7 +43715,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -43641,7 +43727,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -43653,7 +43739,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -43665,7 +43751,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -43677,7 +43763,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -43688,8 +43774,8 @@
       <c r="B111" s="38"/>
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
-      <c r="E111" s="38" t="s">
-        <v>830</v>
+      <c r="E111" s="1" t="s">
+        <v>1001</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -43700,8 +43786,8 @@
       <c r="B112" s="38"/>
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
-      <c r="E112" s="38" t="s">
-        <v>955</v>
+      <c r="E112" s="1" t="s">
+        <v>1002</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -43712,28 +43798,20 @@
       <c r="B113" s="38"/>
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
-      <c r="E113" s="38" t="s">
-        <v>956</v>
+      <c r="E113" s="1" t="s">
+        <v>1005</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
     </row>
-    <row r="114" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A114" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" s="111" t="s">
-        <v>695</v>
-      </c>
-      <c r="C114" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E114" s="111" t="s">
-        <v>831</v>
+    <row r="114" spans="1:8" ht="29">
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38" t="s">
+        <v>830</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -43744,44 +43822,52 @@
       <c r="B115" s="38"/>
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
-      <c r="E115" s="111" t="s">
-        <v>699</v>
+      <c r="E115" s="38" t="s">
+        <v>955</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
     </row>
-    <row r="116" spans="1:8" ht="29" customHeight="1">
+    <row r="116" spans="1:8" ht="29">
       <c r="A116" s="38"/>
       <c r="B116" s="38"/>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
-      <c r="E116" s="111" t="s">
-        <v>702</v>
+      <c r="E116" s="38" t="s">
+        <v>956</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
     </row>
-    <row r="117" spans="1:8" ht="29">
-      <c r="A117" s="38"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
+    <row r="117" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A117" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="111" t="s">
+        <v>695</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>696</v>
+      </c>
       <c r="E117" s="111" t="s">
-        <v>703</v>
+        <v>831</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
     </row>
-    <row r="118" spans="1:8" ht="29" customHeight="1">
+    <row r="118" spans="1:8" ht="29">
       <c r="A118" s="38"/>
       <c r="B118" s="38"/>
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="111" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -43793,19 +43879,19 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="111" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
       <c r="H119" s="38"/>
     </row>
-    <row r="120" spans="1:8" ht="29" customHeight="1">
+    <row r="120" spans="1:8" ht="29">
       <c r="A120" s="38"/>
       <c r="B120" s="38"/>
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="111" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -43817,7 +43903,7 @@
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="111" t="s">
-        <v>832</v>
+        <v>704</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -43829,7 +43915,7 @@
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="111" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -43841,19 +43927,19 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="111" t="s">
-        <v>833</v>
+        <v>706</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
     </row>
-    <row r="124" spans="1:8" ht="29">
+    <row r="124" spans="1:8" ht="29" customHeight="1">
       <c r="A124" s="38"/>
       <c r="B124" s="38"/>
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="111" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -43865,19 +43951,19 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="111" t="s">
-        <v>835</v>
+        <v>697</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
       <c r="H125" s="38"/>
     </row>
-    <row r="126" spans="1:8" ht="29">
+    <row r="126" spans="1:8" ht="29" customHeight="1">
       <c r="A126" s="38"/>
       <c r="B126" s="38"/>
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="111" t="s">
-        <v>698</v>
+        <v>833</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -43888,112 +43974,112 @@
       <c r="B127" s="38"/>
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
-      <c r="E127" s="38" t="s">
-        <v>700</v>
+      <c r="E127" s="111" t="s">
+        <v>834</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
       <c r="H127" s="38"/>
     </row>
-    <row r="128" spans="1:8" ht="29">
+    <row r="128" spans="1:8" ht="29" customHeight="1">
       <c r="A128" s="38"/>
       <c r="B128" s="38"/>
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
-      <c r="E128" s="38" t="s">
-        <v>701</v>
+      <c r="E128" s="111" t="s">
+        <v>835</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" ht="29">
       <c r="A129" s="38"/>
       <c r="B129" s="38"/>
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
-      <c r="E129" s="38" t="s">
-        <v>836</v>
+      <c r="E129" s="111" t="s">
+        <v>698</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" ht="29">
       <c r="A130" s="38"/>
       <c r="B130" s="38"/>
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>837</v>
+        <v>700</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="29">
       <c r="A131" s="38"/>
       <c r="B131" s="38"/>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>838</v>
+        <v>701</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
     </row>
-    <row r="132" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A132" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B132" s="111" t="s">
-        <v>707</v>
-      </c>
-      <c r="C132" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="D132" s="38" t="s">
-        <v>708</v>
-      </c>
+    <row r="132" spans="1:8">
+      <c r="A132" s="38"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>709</v>
+        <v>836</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
       <c r="H132" s="38"/>
     </row>
-    <row r="133" spans="1:8" ht="29" customHeight="1">
+    <row r="133" spans="1:8">
       <c r="A133" s="38"/>
       <c r="B133" s="38"/>
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>710</v>
+        <v>837</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
       <c r="H133" s="38"/>
     </row>
-    <row r="134" spans="1:8" ht="29" customHeight="1">
+    <row r="134" spans="1:8">
       <c r="A134" s="38"/>
       <c r="B134" s="38"/>
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>711</v>
+        <v>838</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
       <c r="H134" s="38"/>
     </row>
-    <row r="135" spans="1:8" ht="29" customHeight="1">
-      <c r="A135" s="38"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
+    <row r="135" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A135" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="111" t="s">
+        <v>707</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="D135" s="38" t="s">
+        <v>708</v>
+      </c>
       <c r="E135" s="38" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -44005,7 +44091,7 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
@@ -44017,7 +44103,7 @@
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -44029,7 +44115,7 @@
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -44041,7 +44127,7 @@
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -44053,43 +44139,43 @@
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
       <c r="H140" s="38"/>
     </row>
-    <row r="141" spans="1:8" ht="29">
+    <row r="141" spans="1:8" ht="29" customHeight="1">
       <c r="A141" s="38"/>
       <c r="B141" s="38"/>
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38" t="s">
-        <v>787</v>
+        <v>715</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
       <c r="H141" s="38"/>
     </row>
-    <row r="142" spans="1:8" ht="29">
+    <row r="142" spans="1:8" ht="29" customHeight="1">
       <c r="A142" s="38"/>
       <c r="B142" s="38"/>
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38" t="s">
-        <v>839</v>
+        <v>716</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
     </row>
-    <row r="143" spans="1:8" ht="29">
+    <row r="143" spans="1:8" ht="29" customHeight="1">
       <c r="A143" s="38"/>
       <c r="B143" s="38"/>
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
-      <c r="E143" s="1" t="s">
-        <v>1007</v>
+      <c r="E143" s="38" t="s">
+        <v>717</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -44100,8 +44186,8 @@
       <c r="B144" s="38"/>
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
-      <c r="E144" s="1" t="s">
-        <v>1008</v>
+      <c r="E144" s="38" t="s">
+        <v>787</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -44112,8 +44198,8 @@
       <c r="B145" s="38"/>
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
-      <c r="E145" s="1" t="s">
-        <v>1009</v>
+      <c r="E145" s="38" t="s">
+        <v>839</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -44125,7 +44211,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -44137,7 +44223,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -44149,7 +44235,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -44161,19 +44247,19 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
     </row>
-    <row r="150" spans="1:8" ht="17.5" customHeight="1">
+    <row r="150" spans="1:8" ht="29">
       <c r="A150" s="38"/>
       <c r="B150" s="38"/>
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
-      <c r="E150" s="38" t="s">
-        <v>840</v>
+      <c r="E150" s="1" t="s">
+        <v>1010</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -44184,8 +44270,8 @@
       <c r="B151" s="38"/>
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
-      <c r="E151" s="38" t="s">
-        <v>957</v>
+      <c r="E151" s="1" t="s">
+        <v>1012</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -44196,48 +44282,32 @@
       <c r="B152" s="38"/>
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
-      <c r="E152" s="38" t="s">
-        <v>1006</v>
+      <c r="E152" s="1" t="s">
+        <v>1013</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
       <c r="H152" s="38"/>
     </row>
-    <row r="153" spans="1:8" ht="72.5">
-      <c r="A153" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B153" s="38" t="s">
-        <v>788</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="D153" s="38" t="s">
-        <v>789</v>
-      </c>
+    <row r="153" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A153" s="38"/>
+      <c r="B153" s="38"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="38"/>
       <c r="E153" s="38" t="s">
-        <v>790</v>
+        <v>840</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
       <c r="H153" s="38"/>
     </row>
-    <row r="154" spans="1:8" ht="43.5">
-      <c r="A154" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="103" t="s">
-        <v>958</v>
-      </c>
-      <c r="C154" s="38" t="s">
-        <v>418</v>
-      </c>
-      <c r="D154" s="38" t="s">
-        <v>959</v>
-      </c>
+    <row r="154" spans="1:8" ht="29">
+      <c r="A154" s="38"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -44249,63 +44319,79 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>961</v>
+        <v>1006</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
       <c r="H155" s="38"/>
     </row>
-    <row r="156" spans="1:8" ht="101.5" customHeight="1">
+    <row r="156" spans="1:8" ht="72.5">
       <c r="A156" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="111" t="s">
-        <v>718</v>
+      <c r="B156" s="38" t="s">
+        <v>788</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D156" s="38" t="s">
-        <v>719</v>
+        <v>789</v>
       </c>
       <c r="E156" s="38" t="s">
-        <v>736</v>
+        <v>790</v>
       </c>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
       <c r="H156" s="38"/>
     </row>
-    <row r="157" spans="1:8" ht="29" customHeight="1">
-      <c r="A157" s="38"/>
-      <c r="B157" s="38"/>
-      <c r="C157" s="38"/>
-      <c r="D157" s="38"/>
+    <row r="157" spans="1:8" ht="43.5">
+      <c r="A157" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="103" t="s">
+        <v>958</v>
+      </c>
+      <c r="C157" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="D157" s="38" t="s">
+        <v>959</v>
+      </c>
       <c r="E157" s="38" t="s">
-        <v>737</v>
+        <v>960</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
       <c r="H157" s="38"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" ht="29">
       <c r="A158" s="38"/>
       <c r="B158" s="38"/>
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>841</v>
+        <v>961</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
       <c r="H158" s="38"/>
     </row>
-    <row r="159" spans="1:8" ht="29" customHeight="1">
-      <c r="A159" s="38"/>
-      <c r="B159" s="38"/>
-      <c r="C159" s="38"/>
-      <c r="D159" s="38"/>
+    <row r="159" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A159" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="111" t="s">
+        <v>718</v>
+      </c>
+      <c r="C159" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="D159" s="38" t="s">
+        <v>719</v>
+      </c>
       <c r="E159" s="38" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -44317,19 +44403,19 @@
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
       <c r="H160" s="38"/>
     </row>
-    <row r="161" spans="1:8" ht="29" customHeight="1">
+    <row r="161" spans="1:8">
       <c r="A161" s="38"/>
       <c r="B161" s="38"/>
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
@@ -44341,7 +44427,7 @@
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
@@ -44353,7 +44439,7 @@
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
@@ -44365,7 +44451,7 @@
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
@@ -44377,7 +44463,7 @@
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
@@ -44389,7 +44475,7 @@
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
@@ -44401,7 +44487,7 @@
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
@@ -44413,7 +44499,7 @@
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
@@ -44425,7 +44511,7 @@
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
@@ -44437,7 +44523,7 @@
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
@@ -44449,7 +44535,7 @@
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F171" s="38"/>
       <c r="G171" s="38"/>
@@ -44461,7 +44547,7 @@
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
@@ -44473,7 +44559,7 @@
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
@@ -44485,7 +44571,7 @@
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38"/>
@@ -44497,7 +44583,7 @@
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
@@ -44509,7 +44595,7 @@
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
@@ -44521,31 +44607,31 @@
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
       <c r="H177" s="38"/>
     </row>
-    <row r="178" spans="1:8" ht="29">
+    <row r="178" spans="1:8" ht="29" customHeight="1">
       <c r="A178" s="38"/>
       <c r="B178" s="38"/>
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F178" s="38"/>
       <c r="G178" s="38"/>
       <c r="H178" s="38"/>
     </row>
-    <row r="179" spans="1:8" ht="29">
+    <row r="179" spans="1:8" ht="29" customHeight="1">
       <c r="A179" s="38"/>
       <c r="B179" s="38"/>
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="F179" s="38"/>
       <c r="G179" s="38"/>
@@ -44557,67 +44643,67 @@
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="F180" s="38"/>
       <c r="G180" s="38"/>
       <c r="H180" s="38"/>
     </row>
-    <row r="181" spans="1:8" ht="29" customHeight="1">
+    <row r="181" spans="1:8" ht="29">
       <c r="A181" s="38"/>
       <c r="B181" s="38"/>
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
       <c r="H181" s="38"/>
     </row>
-    <row r="182" spans="1:8" ht="29" customHeight="1">
+    <row r="182" spans="1:8" ht="29">
       <c r="A182" s="38"/>
       <c r="B182" s="38"/>
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38" t="s">
-        <v>842</v>
+        <v>745</v>
       </c>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
       <c r="H182" s="38"/>
     </row>
-    <row r="183" spans="1:8" ht="29">
+    <row r="183" spans="1:8" ht="29" customHeight="1">
       <c r="A183" s="38"/>
       <c r="B183" s="38"/>
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38" t="s">
-        <v>989</v>
+        <v>746</v>
       </c>
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
       <c r="H183" s="38"/>
     </row>
-    <row r="184" spans="1:8" ht="29">
+    <row r="184" spans="1:8" ht="29" customHeight="1">
       <c r="A184" s="38"/>
       <c r="B184" s="38"/>
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38" t="s">
-        <v>990</v>
+        <v>747</v>
       </c>
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
       <c r="H184" s="38"/>
     </row>
-    <row r="185" spans="1:8" ht="29">
+    <row r="185" spans="1:8" ht="29" customHeight="1">
       <c r="A185" s="38"/>
       <c r="B185" s="38"/>
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38" t="s">
-        <v>991</v>
+        <v>842</v>
       </c>
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
@@ -44629,7 +44715,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -44641,7 +44727,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -44653,7 +44739,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -44665,43 +44751,43 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>843</v>
+        <v>992</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="38"/>
     </row>
-    <row r="190" spans="1:8" ht="29" customHeight="1">
+    <row r="190" spans="1:8" ht="29">
       <c r="A190" s="38"/>
       <c r="B190" s="38"/>
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>738</v>
+        <v>993</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
       <c r="H190" s="38"/>
     </row>
-    <row r="191" spans="1:8" ht="29" customHeight="1">
+    <row r="191" spans="1:8" ht="29">
       <c r="A191" s="38"/>
       <c r="B191" s="38"/>
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>740</v>
+        <v>994</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
       <c r="H191" s="38"/>
     </row>
-    <row r="192" spans="1:8" ht="29" customHeight="1">
+    <row r="192" spans="1:8" ht="29">
       <c r="A192" s="38"/>
       <c r="B192" s="38"/>
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38" t="s">
-        <v>741</v>
+        <v>843</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
@@ -44713,26 +44799,62 @@
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38" t="s">
-        <v>844</v>
+        <v>738</v>
       </c>
       <c r="F193" s="38"/>
       <c r="G193" s="38"/>
       <c r="H193" s="38"/>
     </row>
-    <row r="194" spans="1:8" ht="29">
-      <c r="A194" s="76"/>
-      <c r="B194" s="76"/>
-      <c r="C194" s="76"/>
-      <c r="D194" s="76"/>
-      <c r="E194" s="76" t="s">
+    <row r="194" spans="1:8" ht="29" customHeight="1">
+      <c r="A194" s="38"/>
+      <c r="B194" s="38"/>
+      <c r="C194" s="38"/>
+      <c r="D194" s="38"/>
+      <c r="E194" s="38" t="s">
+        <v>740</v>
+      </c>
+      <c r="F194" s="38"/>
+      <c r="G194" s="38"/>
+      <c r="H194" s="38"/>
+    </row>
+    <row r="195" spans="1:8" ht="29" customHeight="1">
+      <c r="A195" s="38"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38"/>
+      <c r="E195" s="38" t="s">
+        <v>741</v>
+      </c>
+      <c r="F195" s="38"/>
+      <c r="G195" s="38"/>
+      <c r="H195" s="38"/>
+    </row>
+    <row r="196" spans="1:8" ht="29" customHeight="1">
+      <c r="A196" s="38"/>
+      <c r="B196" s="38"/>
+      <c r="C196" s="38"/>
+      <c r="D196" s="38"/>
+      <c r="E196" s="38" t="s">
+        <v>844</v>
+      </c>
+      <c r="F196" s="38"/>
+      <c r="G196" s="38"/>
+      <c r="H196" s="38"/>
+    </row>
+    <row r="197" spans="1:8" ht="29">
+      <c r="A197" s="76"/>
+      <c r="B197" s="76"/>
+      <c r="C197" s="76"/>
+      <c r="D197" s="76"/>
+      <c r="E197" s="76" t="s">
         <v>995</v>
       </c>
-      <c r="F194" s="76"/>
-      <c r="G194" s="76"/>
-      <c r="H194" s="76"/>
-    </row>
-    <row r="195" spans="1:8" s="40" customFormat="1" ht="29">
-      <c r="E195" s="38" t="s">
+      <c r="F197" s="76"/>
+      <c r="G197" s="76"/>
+      <c r="H197" s="76"/>
+    </row>
+    <row r="198" spans="1:8" s="40" customFormat="1" ht="29">
+      <c r="E198" s="38" t="s">
         <v>996</v>
       </c>
     </row>
@@ -44741,86 +44863,92 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E3:E35 E189:E530 E44:E101 E111:E142 E150:E182"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B3:B530"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H530"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E3:E35 E192:E533 E153:E185 E114:E145 E44:E83 E87:E104"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B3:B533"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H533"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="17">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C656,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C189:C530</xm:sqref>
+          <xm:sqref>C192:C533</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C186:C188</xm:sqref>
+          <xm:sqref>C189:C191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C185</xm:sqref>
+          <xm:sqref>C188</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C183</xm:sqref>
+          <xm:sqref>C186</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C184 C111:C142</xm:sqref>
+          <xm:sqref>C187 C114:C145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A530</xm:sqref>
+          <xm:sqref>A3:A83 A87:A533</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C623,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C150:C182</xm:sqref>
+          <xm:sqref>C153:C185</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C106:C107 C41:C43 C145:C146</xm:sqref>
+          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109 C148</xm:sqref>
+          <xm:sqref>C112 C151</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C110 C108 C149 C147</xm:sqref>
+          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C107 C146 C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C104 C143</xm:sqref>
+          <xm:sqref>C108 C147</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C532,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C105 C38:C39 C144</xm:sqref>
+          <xm:sqref>C38:C39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -44836,9 +44964,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C573,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C44:C103</xm:sqref>
+          <xm:sqref>C87:C106</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -44851,6 +44979,18 @@
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
+          <x14:formula1>
+            <xm:f>'D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A84:A86</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C84:C86</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -44881,20 +45021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>914</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118" t="s">
         <v>486</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="44" t="s">
@@ -45281,7 +45421,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -45300,22 +45440,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="115" t="s">
         <v>473</v>
       </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="115"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -45328,7 +45468,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>1034</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -45604,17 +45744,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>811</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="113" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="115" t="s">
         <v>812</v>
       </c>
-      <c r="G1" s="114"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="80" t="s">
@@ -45981,16 +46121,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" s="47" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -46162,28 +46302,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="119" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="121" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
     </row>
     <row r="2" spans="1:18" s="47" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -46271,22 +46411,22 @@
       <c r="K3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="134" t="s">
+      <c r="L3" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="134" t="s">
+      <c r="M3" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="134" t="s">
+      <c r="N3" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="134" t="s">
+      <c r="O3" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="134" t="s">
+      <c r="P3" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="133"/>
+      <c r="Q3" s="112"/>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18">
@@ -46319,22 +46459,22 @@
       <c r="K4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="134" t="s">
+      <c r="L4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="134" t="s">
+      <c r="M4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="134" t="s">
+      <c r="N4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="134" t="s">
+      <c r="O4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="134" t="s">
+      <c r="P4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="133"/>
+      <c r="Q4" s="112"/>
       <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18">
@@ -46367,22 +46507,22 @@
       <c r="K5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="134" t="s">
+      <c r="L5" s="113" t="s">
         <v>389</v>
       </c>
-      <c r="M5" s="134" t="s">
+      <c r="M5" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="134" t="s">
+      <c r="N5" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="134" t="s">
+      <c r="O5" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="134" t="s">
+      <c r="P5" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="133"/>
+      <c r="Q5" s="112"/>
       <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" s="36" customFormat="1" ht="25.25" customHeight="1">

--- a/oci_tools/automation_toolkit/example/CD3-Flat-template.xlsx
+++ b/oci_tools/automation_toolkit/example/CD3-Flat-template.xlsx
@@ -6635,6 +6635,352 @@
     <t/>
   </si>
   <si>
+    <t>DB System Display Name</t>
+  </si>
+  <si>
+    <t>Node Count</t>
+  </si>
+  <si>
+    <t>CPU Core Count</t>
+  </si>
+  <si>
+    <t>Database Edition</t>
+  </si>
+  <si>
+    <t>Data Storage Size in GB</t>
+  </si>
+  <si>
+    <t>Data Storage Percentage</t>
+  </si>
+  <si>
+    <t>Disk Redundancy</t>
+  </si>
+  <si>
+    <t>License Model</t>
+  </si>
+  <si>
+    <t>DB Workload</t>
+  </si>
+  <si>
+    <t>Enable Automatic Backups</t>
+  </si>
+  <si>
+    <t>Back up Retention Period</t>
+  </si>
+  <si>
+    <t>VM.Standard1.1</t>
+  </si>
+  <si>
+    <t>VM.Standard1.2</t>
+  </si>
+  <si>
+    <t>VM.Standard1.4</t>
+  </si>
+  <si>
+    <t>VM.Standard1.8</t>
+  </si>
+  <si>
+    <t>VM.Standard1.16</t>
+  </si>
+  <si>
+    <t>Shapes</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>DB workload</t>
+  </si>
+  <si>
+    <t>Exadata Infra Display Name</t>
+  </si>
+  <si>
+    <t>Database Servers</t>
+  </si>
+  <si>
+    <t>Storage Servers</t>
+  </si>
+  <si>
+    <t>Exadata.X8M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                             Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+  </si>
+  <si>
+    <t>VM Cluster Display Name</t>
+  </si>
+  <si>
+    <t>Client Subnet Name</t>
+  </si>
+  <si>
+    <t>Oracle Grid Infrastructure Version</t>
+  </si>
+  <si>
+    <t>Allocate storage for Exadata sparse snapshots</t>
+  </si>
+  <si>
+    <t>Allocate storage for local backups</t>
+  </si>
+  <si>
+    <t>Allow Group AppDevAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group AppDevAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group DatabaseAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group DatabaseAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group NetworkAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>CostAdmins-Policy</t>
+  </si>
+  <si>
+    <t>Policy allowing CostAdmins group to manage costing.</t>
+  </si>
+  <si>
+    <t>Allow group CostAdmins to manage usage-report in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group CostAdmins to manage usage-budgets  in tenancy</t>
+  </si>
+  <si>
+    <t>CostAdmins</t>
+  </si>
+  <si>
+    <t>Group responsible for Cost Management</t>
+  </si>
+  <si>
+    <t>The namespace for the automatic tags.</t>
+  </si>
+  <si>
+    <t>prod-vcn_prod-db</t>
+  </si>
+  <si>
+    <t>MyVM_DB</t>
+  </si>
+  <si>
+    <t>vmdb</t>
+  </si>
+  <si>
+    <t>MyBM_DB</t>
+  </si>
+  <si>
+    <t>bmdb</t>
+  </si>
+  <si>
+    <t>ssh-rsa AAAAB3NzaC1yc2EAAAABJQAAAQEAxQXVLKYOfEPNY6/psWxXWNIN23SFRkaHO2vlUQ3b3vv9k5OO5Di5qmzJ+hZoTifYw+4oyYs0vsPgccy8uz7eJTso2gyk4g7eKMEbmQdDbdPb1K8v1EdF11LfjnImepDDGRNgabhjfS4R/FAA0BTj8xAOjnRsBRD2FrYcVyoxvunKce1V5o3CtgqNlcLrSf+PJb++AW/K5BeLFpJMFCJXSC3QuL0ltYVUp/weA7L/yGOGCSJsv8JzaEekXgGHtuGvpibphYBKtk4sqc6AOWcWGT/6kx7Ntvpg+exdkqGQSDz1krcRyZyQpkQTSaq0Xcld1YZ4u8g5gAl/zDs+7ABRVw== rsa-key-20211111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.12.0.0 </t>
+  </si>
+  <si>
+    <t>18.13.0.0</t>
+  </si>
+  <si>
+    <t>18.14.0.0</t>
+  </si>
+  <si>
+    <t>19.10.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.0.0 </t>
+  </si>
+  <si>
+    <t>19.12.0.0</t>
+  </si>
+  <si>
+    <t>21.0.0.0</t>
+  </si>
+  <si>
+    <t>21.3.0.0</t>
+  </si>
+  <si>
+    <t>VMCluster</t>
+  </si>
+  <si>
+    <t>vmname</t>
+  </si>
+  <si>
+    <t>nonprod-vcn_nonprod-db</t>
+  </si>
+  <si>
+    <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to read work-requests in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage bastion-session in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage cloudevents-rules in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to read instance-agent-plugins in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to read work-requests in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage bastion-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage alarms in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage metrics in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to read instance-agent-plugins in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow Group SecurityAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group SecurityAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to read work-requests in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to manage cloudevents-rules in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to manage instance-family in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to read vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to inspect keys in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to read instance-agent-plugins in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow Group NetworkAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to read work-requests in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to manage bastion-session in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to manage cloudevents-rules in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to manage instance-family in compartment Network</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to read instance-agent-plugins in compartment Network</t>
+  </si>
+  <si>
+    <t>vcn01</t>
+  </si>
+  <si>
+    <t>ash-drg</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>PHX-DRG</t>
+  </si>
+  <si>
+    <t>y,y</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>phxhub</t>
+  </si>
+  <si>
+    <t>lpgebs</t>
+  </si>
+  <si>
+    <t>spoke:PHXHub-VCN</t>
+  </si>
+  <si>
+    <t>lpgtcc</t>
+  </si>
+  <si>
+    <t>VCN::vcn01</t>
+  </si>
+  <si>
+    <t>vcn01-RT</t>
+  </si>
+  <si>
+    <t>vcn01-RD</t>
+  </si>
+  <si>
+    <t>vcn01.oraclevcn.com</t>
+  </si>
+  <si>
+    <t>vcn01-db</t>
+  </si>
+  <si>
+    <t>vcn01-app</t>
+  </si>
+  <si>
+    <t>vcn01-dmz</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read data-safe-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read autonomous-database-family in tenancy</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to read vaults in tenancy</t>
+  </si>
+  <si>
+    <t>CIDR Blocks</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -6690,7 +7036,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">v8.0.2
+      <t xml:space="preserve">v9
 </t>
     </r>
     <r>
@@ -6701,355 +7047,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
 </t>
     </r>
-  </si>
-  <si>
-    <t>DB System Display Name</t>
-  </si>
-  <si>
-    <t>Node Count</t>
-  </si>
-  <si>
-    <t>CPU Core Count</t>
-  </si>
-  <si>
-    <t>Database Edition</t>
-  </si>
-  <si>
-    <t>Data Storage Size in GB</t>
-  </si>
-  <si>
-    <t>Data Storage Percentage</t>
-  </si>
-  <si>
-    <t>Disk Redundancy</t>
-  </si>
-  <si>
-    <t>License Model</t>
-  </si>
-  <si>
-    <t>DB Workload</t>
-  </si>
-  <si>
-    <t>Enable Automatic Backups</t>
-  </si>
-  <si>
-    <t>Back up Retention Period</t>
-  </si>
-  <si>
-    <t>VM.Standard1.1</t>
-  </si>
-  <si>
-    <t>VM.Standard1.2</t>
-  </si>
-  <si>
-    <t>VM.Standard1.4</t>
-  </si>
-  <si>
-    <t>VM.Standard1.8</t>
-  </si>
-  <si>
-    <t>VM.Standard1.16</t>
-  </si>
-  <si>
-    <t>Shapes</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>DB workload</t>
-  </si>
-  <si>
-    <t>Exadata Infra Display Name</t>
-  </si>
-  <si>
-    <t>Database Servers</t>
-  </si>
-  <si>
-    <t>Storage Servers</t>
-  </si>
-  <si>
-    <t>Exadata.X8M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                             Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-  </si>
-  <si>
-    <t>VM Cluster Display Name</t>
-  </si>
-  <si>
-    <t>Client Subnet Name</t>
-  </si>
-  <si>
-    <t>Oracle Grid Infrastructure Version</t>
-  </si>
-  <si>
-    <t>Allocate storage for Exadata sparse snapshots</t>
-  </si>
-  <si>
-    <t>Allocate storage for local backups</t>
-  </si>
-  <si>
-    <t>Allow Group AppDevAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group AppDevAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group Auditors to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group Auditors to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group NetworkAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>CostAdmins-Policy</t>
-  </si>
-  <si>
-    <t>Policy allowing CostAdmins group to manage costing.</t>
-  </si>
-  <si>
-    <t>Allow group CostAdmins to manage usage-report in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group CostAdmins to manage usage-budgets  in tenancy</t>
-  </si>
-  <si>
-    <t>CostAdmins</t>
-  </si>
-  <si>
-    <t>Group responsible for Cost Management</t>
-  </si>
-  <si>
-    <t>The namespace for the automatic tags.</t>
-  </si>
-  <si>
-    <t>prod-vcn_prod-db</t>
-  </si>
-  <si>
-    <t>MyVM_DB</t>
-  </si>
-  <si>
-    <t>vmdb</t>
-  </si>
-  <si>
-    <t>MyBM_DB</t>
-  </si>
-  <si>
-    <t>bmdb</t>
-  </si>
-  <si>
-    <t>ssh-rsa AAAAB3NzaC1yc2EAAAABJQAAAQEAxQXVLKYOfEPNY6/psWxXWNIN23SFRkaHO2vlUQ3b3vv9k5OO5Di5qmzJ+hZoTifYw+4oyYs0vsPgccy8uz7eJTso2gyk4g7eKMEbmQdDbdPb1K8v1EdF11LfjnImepDDGRNgabhjfS4R/FAA0BTj8xAOjnRsBRD2FrYcVyoxvunKce1V5o3CtgqNlcLrSf+PJb++AW/K5BeLFpJMFCJXSC3QuL0ltYVUp/weA7L/yGOGCSJsv8JzaEekXgGHtuGvpibphYBKtk4sqc6AOWcWGT/6kx7Ntvpg+exdkqGQSDz1krcRyZyQpkQTSaq0Xcld1YZ4u8g5gAl/zDs+7ABRVw== rsa-key-20211111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.12.0.0 </t>
-  </si>
-  <si>
-    <t>18.13.0.0</t>
-  </si>
-  <si>
-    <t>18.14.0.0</t>
-  </si>
-  <si>
-    <t>19.10.0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.11.0.0 </t>
-  </si>
-  <si>
-    <t>19.12.0.0</t>
-  </si>
-  <si>
-    <t>21.0.0.0</t>
-  </si>
-  <si>
-    <t>21.3.0.0</t>
-  </si>
-  <si>
-    <t>VMCluster</t>
-  </si>
-  <si>
-    <t>vmname</t>
-  </si>
-  <si>
-    <t>nonprod-vcn_nonprod-db</t>
-  </si>
-  <si>
-    <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read work-requests in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage bastion-session in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage cloudevents-rules in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read instance-agent-plugins in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read work-requests in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage bastion-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage alarms in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage metrics in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read instance-agent-plugins in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow Group SecurityAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group SecurityAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read work-requests in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage cloudevents-rules in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage instance-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to inspect keys in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read instance-agent-plugins in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group NetworkAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to read work-requests in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage bastion-session in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage cloudevents-rules in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage instance-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to read instance-agent-plugins in compartment Network</t>
-  </si>
-  <si>
-    <t>vcn01</t>
-  </si>
-  <si>
-    <t>ash-drg</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>PHX-DRG</t>
-  </si>
-  <si>
-    <t>y,y</t>
-  </si>
-  <si>
-    <t>hub</t>
-  </si>
-  <si>
-    <t>phxhub</t>
-  </si>
-  <si>
-    <t>lpgebs</t>
-  </si>
-  <si>
-    <t>spoke:PHXHub-VCN</t>
-  </si>
-  <si>
-    <t>lpgtcc</t>
-  </si>
-  <si>
-    <t>VCN::vcn01</t>
-  </si>
-  <si>
-    <t>vcn01-RT</t>
-  </si>
-  <si>
-    <t>vcn01-RD</t>
-  </si>
-  <si>
-    <t>vcn01.oraclevcn.com</t>
-  </si>
-  <si>
-    <t>vcn01-db</t>
-  </si>
-  <si>
-    <t>vcn01-app</t>
-  </si>
-  <si>
-    <t>vcn01-dmz</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read data-safe-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read autonomous-database-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read vaults in tenancy</t>
-  </si>
-  <si>
-    <t>CIDR Blocks</t>
   </si>
 </sst>
 </file>
@@ -11084,36 +11084,36 @@
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
@@ -11497,7 +11497,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
-        <v>920</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -17859,31 +17859,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F2" s="69" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="69" t="s">
+        <v>921</v>
+      </c>
+      <c r="H2" s="69" t="s">
         <v>922</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="I2" s="69" t="s">
         <v>923</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="J2" s="69" t="s">
         <v>924</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="K2" s="95" t="s">
         <v>925</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="69" t="s">
         <v>926</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="M2" s="70" t="s">
         <v>927</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>928</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>425</v>
@@ -17901,10 +17901,10 @@
         <v>428</v>
       </c>
       <c r="S2" s="69" t="s">
+        <v>928</v>
+      </c>
+      <c r="T2" s="69" t="s">
         <v>929</v>
-      </c>
-      <c r="T2" s="69" t="s">
-        <v>930</v>
       </c>
       <c r="U2" s="69" t="s">
         <v>96</v>
@@ -17916,7 +17916,7 @@
         <v>332</v>
       </c>
       <c r="X2" s="69" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Y2" s="69" t="s">
         <v>597</v>
@@ -17966,10 +17966,10 @@
         <v>57</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>964</v>
+      </c>
+      <c r="E4" s="107" t="s">
         <v>965</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>966</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>349</v>
@@ -17992,7 +17992,7 @@
         <v>338</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="O4" s="56" t="s">
         <v>339</v>
@@ -18040,10 +18040,10 @@
         <v>91</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>352</v>
@@ -18068,7 +18068,7 @@
         <v>338</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O5" s="56" t="s">
         <v>354</v>
@@ -18089,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="V5" s="40" t="s">
         <v>344</v>
@@ -24251,7 +24251,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -24269,7 +24269,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>85</v>
@@ -24278,10 +24278,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="95" t="s">
+        <v>941</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>942</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>943</v>
       </c>
       <c r="H2" s="98" t="s">
         <v>444</v>
@@ -24313,7 +24313,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F4" s="38">
         <v>2</v>
@@ -30398,34 +30398,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D2" s="70" t="s">
+        <v>945</v>
+      </c>
+      <c r="E2" s="95" t="s">
         <v>946</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>947</v>
       </c>
       <c r="F2" s="95" t="s">
         <v>356</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>425</v>
       </c>
       <c r="J2" s="95" t="s">
+        <v>947</v>
+      </c>
+      <c r="K2" s="95" t="s">
         <v>948</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="95" t="s">
         <v>949</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>950</v>
       </c>
       <c r="M2" s="95" t="s">
         <v>96</v>
@@ -30475,13 +30475,13 @@
         <v>432</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G4" s="110">
         <v>4</v>
@@ -30490,7 +30490,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J4" s="104" t="s">
         <v>437</v>
@@ -37357,22 +37357,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="52" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>433</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>358</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>332</v>
@@ -37381,13 +37381,13 @@
         <v>331</v>
       </c>
       <c r="I1" s="97" t="s">
+        <v>925</v>
+      </c>
+      <c r="J1" s="97" t="s">
         <v>926</v>
       </c>
-      <c r="J1" s="97" t="s">
-        <v>927</v>
-      </c>
       <c r="K1" s="62" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -37419,7 +37419,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K2" s="40">
         <v>1</v>
@@ -37427,7 +37427,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="96" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>435</v>
@@ -37454,7 +37454,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K3" s="40">
         <v>2</v>
@@ -37462,7 +37462,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="96" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>353</v>
@@ -37484,7 +37484,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>436</v>
@@ -37504,7 +37504,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -37517,11 +37517,11 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="96" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -37534,11 +37534,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="96" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -37572,7 +37572,7 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
@@ -37585,11 +37585,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="96" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
@@ -37606,11 +37606,11 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F12" s="40"/>
       <c r="H12" s="40" t="s">
@@ -37623,7 +37623,7 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -37638,7 +37638,7 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -41532,10 +41532,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>961</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>962</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>963</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -42843,7 +42843,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -42855,7 +42855,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -42867,7 +42867,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -42879,7 +42879,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -42891,7 +42891,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -42927,7 +42927,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -42951,7 +42951,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -42963,7 +42963,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -43151,7 +43151,7 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -43163,7 +43163,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -43443,7 +43443,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -43455,7 +43455,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -43467,7 +43467,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -43703,7 +43703,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -43715,7 +43715,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -43727,7 +43727,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -43739,7 +43739,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -43751,7 +43751,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -43763,7 +43763,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -43775,7 +43775,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -43787,7 +43787,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -43799,7 +43799,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -43823,7 +43823,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -43835,7 +43835,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -44211,7 +44211,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -44223,7 +44223,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -44235,7 +44235,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -44247,7 +44247,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -44259,7 +44259,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -44271,7 +44271,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -44283,7 +44283,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -44307,7 +44307,7 @@
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -44319,7 +44319,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -44350,16 +44350,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="103" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>418</v>
       </c>
       <c r="D157" s="38" t="s">
+        <v>958</v>
+      </c>
+      <c r="E157" s="38" t="s">
         <v>959</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>960</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -44371,7 +44371,7 @@
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -44715,7 +44715,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -44727,7 +44727,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -44739,7 +44739,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -44751,7 +44751,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -44763,7 +44763,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -44775,7 +44775,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -44847,7 +44847,7 @@
       <c r="C197" s="76"/>
       <c r="D197" s="76"/>
       <c r="E197" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
@@ -44855,7 +44855,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="29">
       <c r="E198" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -45079,7 +45079,7 @@
         <v>797</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>791</v>
@@ -45109,7 +45109,7 @@
         <v>797</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>794</v>
@@ -45468,7 +45468,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -45503,13 +45503,13 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -45524,7 +45524,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
@@ -45559,7 +45559,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>23</v>
@@ -45571,13 +45571,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="74" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J5" s="74" t="s">
         <v>1018</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="K5" s="74" t="s">
         <v>1019</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>1020</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>464</v>
@@ -45609,10 +45609,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="74" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J6" s="74" t="s">
         <v>1021</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>1022</v>
       </c>
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
@@ -45643,10 +45643,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="74" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
@@ -45787,16 +45787,16 @@
         <v>366</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>1024</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>1025</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>1026</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>847</v>
@@ -46166,7 +46166,7 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>36</v>
@@ -46175,7 +46175,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -46389,10 +46389,10 @@
         <v>366</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>51</v>
@@ -46437,10 +46437,10 @@
         <v>366</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>750</v>
@@ -46485,10 +46485,10 @@
         <v>366</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>852</v>
